--- a/data/classificazioni/raccordo-ISCO08_III-Cp2021_V.xlsx
+++ b/data/classificazioni/raccordo-ISCO08_III-Cp2021_V.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luiss-my.sharepoint.com/personal/fsalate_luiss_it/Documents/DATA LAB/WIH/02 analisi/data/classificazioni/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luiss-my.sharepoint.com/personal/fsalate_luiss_it/Documents/DATA LAB/WIH/WIH/data/classificazioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_DE566228F4D5CA2FFC458520ED70EDECCEA7B001" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A42D0B53-A905-4643-AE09-AEEABB58DA56}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_DE566228F4D5CA2FFC458520ED70EDECCEA7B001" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92B858D-EF34-47DF-8581-A83ADBCE6F0D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="III isco08- Vcp2021" sheetId="1" r:id="rId1"/>
@@ -5760,7 +5760,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5773,10 +5773,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6082,7 +6078,7 @@
   <dimension ref="A1:D814"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D16"/>
+      <selection activeCell="D836" sqref="D836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17807,7 +17803,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D814" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>